--- a/thesis/evalResults/resultsOntologyKnowledge.xlsx
+++ b/thesis/evalResults/resultsOntologyKnowledge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipfrerk/github/MastersThesisNew/thesis/evalResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578BAF03-8C1D-1E4F-9850-E1929B73D5A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543B7C8-3856-784A-AA75-C85E8F1963BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40220" yWindow="1280" windowWidth="28240" windowHeight="17100" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
+    <workbookView xWindow="2180" yWindow="1080" windowWidth="28240" windowHeight="17100" activeTab="1" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
   </bookViews>
   <sheets>
     <sheet name="original graphs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>symmetric</t>
   </si>
@@ -70,10 +70,10 @@
     <t>Kante entfernen</t>
   </si>
   <si>
-    <t>0.99097</t>
-  </si>
-  <si>
     <t>Ergebnnise mit unmanipuliertem Teilgraph</t>
+  </si>
+  <si>
+    <t>Kante hinzufügen (bei Graph wo immer nur die eine Richung existiert)</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -121,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52CF401-B208-9844-85EB-AAAD7BBC1406}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +467,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -500,10 +507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C2709-5FAA-F749-846B-71FE46B1CA8A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,8 +608,43 @@
         <f>1889/1999</f>
         <v>0.94497248624312158</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
+      <c r="D8" s="2">
+        <v>0.99097000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <f>8780/11122</f>
+        <v>0.78942636216507822</v>
+      </c>
+      <c r="C11" s="3">
+        <f>27220/18608</f>
+        <v>1.4628116938950988</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <f>598/1008</f>
+        <v>0.59325396825396826</v>
+      </c>
+      <c r="C12" s="3">
+        <f>2778/1889</f>
+        <v>1.470619375330863</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/evalResults/resultsOntologyKnowledge.xlsx
+++ b/thesis/evalResults/resultsOntologyKnowledge.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipfrerk/github/MastersThesisNew/thesis/evalResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543B7C8-3856-784A-AA75-C85E8F1963BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30804971-E66B-5443-838F-C7F5C6DFA2D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1080" windowWidth="28240" windowHeight="17100" activeTab="1" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
+    <workbookView xWindow="560" yWindow="900" windowWidth="28240" windowHeight="17100" activeTab="2" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
   </bookViews>
   <sheets>
     <sheet name="original graphs" sheetId="1" r:id="rId1"/>
     <sheet name="symmetric" sheetId="2" r:id="rId2"/>
+    <sheet name="transitive" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>symmetric</t>
   </si>
@@ -74,6 +75,18 @@
   </si>
   <si>
     <t>Kante hinzufügen (bei Graph wo immer nur die eine Richung existiert)</t>
+  </si>
+  <si>
+    <t>Ergebnisse transitive mit manipuliertem Teilgraph)</t>
+  </si>
+  <si>
+    <t>IER</t>
+  </si>
+  <si>
+    <t>OER</t>
+  </si>
+  <si>
+    <t>SR</t>
   </si>
 </sst>
 </file>
@@ -115,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,15 +136,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -509,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C2709-5FAA-F749-846B-71FE46B1CA8A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
@@ -650,4 +674,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59334324-6A26-8448-9C8C-ED7E4F35FE38}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f>10461/3988</f>
+        <v>2.6231193580742227</v>
+      </c>
+      <c r="C4" s="1">
+        <f>8995/2595</f>
+        <v>3.4662813102119459</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <f>3010/3988</f>
+        <v>0.75476429287863589</v>
+      </c>
+      <c r="C8" s="2">
+        <f>1306/2595</f>
+        <v>0.50327552986512525</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thesis/evalResults/resultsOntologyKnowledge.xlsx
+++ b/thesis/evalResults/resultsOntologyKnowledge.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipfrerk/github/MastersThesisNew/thesis/evalResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30804971-E66B-5443-838F-C7F5C6DFA2D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061767AB-75B9-CE46-AF56-1BE9D5806753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="900" windowWidth="28240" windowHeight="17100" activeTab="2" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
   </bookViews>
   <sheets>
     <sheet name="original graphs" sheetId="1" r:id="rId1"/>
     <sheet name="symmetric" sheetId="2" r:id="rId2"/>
-    <sheet name="transitive" sheetId="3" r:id="rId3"/>
+    <sheet name="inverse" sheetId="4" r:id="rId3"/>
+    <sheet name="transitive" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>symmetric</t>
   </si>
@@ -87,6 +88,12 @@
   </si>
   <si>
     <t>SR</t>
+  </si>
+  <si>
+    <t>Kante hinzufügen (bei großem Graph )</t>
+  </si>
+  <si>
+    <t>Ergebnisse inverse mit manipuliertem Teilgraph)</t>
   </si>
 </sst>
 </file>
@@ -677,11 +684,124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43294591-97CC-304D-B853-809DBC2159A4}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f>2307/1096</f>
+        <v>2.1049270072992701</v>
+      </c>
+      <c r="C3" s="1">
+        <f>833/838</f>
+        <v>0.9940334128878282</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f>2944/1996</f>
+        <v>1.4749498997995991</v>
+      </c>
+      <c r="C4" s="1">
+        <f>714/879</f>
+        <v>0.8122866894197952</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0980000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59334324-6A26-8448-9C8C-ED7E4F35FE38}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,13 +842,8 @@
         <f>10461/3988</f>
         <v>2.6231193580742227</v>
       </c>
-      <c r="C4" s="1">
-        <f>8995/2595</f>
-        <v>3.4662813102119459</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.784</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F5" t="s">

--- a/thesis/evalResults/resultsOntologyKnowledge.xlsx
+++ b/thesis/evalResults/resultsOntologyKnowledge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipfrerk/github/MastersThesisNew/thesis/evalResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061767AB-75B9-CE46-AF56-1BE9D5806753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325E683A-653F-7048-9556-C443CFD3850C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
+    <workbookView xWindow="1040" yWindow="800" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{D6E88737-E045-DD41-B45E-045F64DA3798}"/>
   </bookViews>
   <sheets>
     <sheet name="original graphs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>symmetric</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Ergebnisse inverse mit manipuliertem Teilgraph)</t>
+  </si>
+  <si>
+    <t>Kante hinzufügen (bei großem Graph wo nur eine richtung existiert)</t>
+  </si>
+  <si>
+    <t>DBPedia</t>
+  </si>
+  <si>
+    <t>0.89</t>
   </si>
 </sst>
 </file>
@@ -685,10 +694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43294591-97CC-304D-B853-809DBC2159A4}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,6 +799,39 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <f>77703/33794</f>
+        <v>2.2993134876013492</v>
+      </c>
+      <c r="C15">
+        <f>16825/20478</f>
+        <v>0.82161343881238402</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1.6</v>
+      </c>
+      <c r="C16">
+        <v>0.78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
